--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_22.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1136317.243844714</v>
+        <v>1129880.719269127</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516698</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791248</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9977299.382160144</v>
+        <v>9976709.402769724</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>364.4931453783775</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>122.4360853739836</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>132.3187953056072</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
@@ -756,7 +756,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>62.60748541588828</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>273.0891598015559</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>60.76189161955243</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>203.0747586157703</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -908,13 +908,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>111.5836098129616</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>100.8996439579097</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>69.9893010461506</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>175.6983641828944</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>70.52110301582015</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.205238724643059</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>354.7617209972992</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>26.24962422171318</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>175.6983641828944</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595511</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873668</v>
+        <v>318.1654340873669</v>
       </c>
       <c r="D11" t="n">
-        <v>69.22706606261096</v>
+        <v>310.5084051007671</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398891</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>337.952815562145</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372798</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362804</v>
+        <v>93.7701071136281</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>267.607428808785</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>314.4797666215419</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>319.8444572927808</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993877</v>
+        <v>40.78297506860651</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681701</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338906</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456099</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901696</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845443</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>209.4113931129053</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>192.2412393326522</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534023</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>160.6612066001149</v>
       </c>
       <c r="Y13" t="n">
         <v>149.8026281767912</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873668</v>
+        <v>318.1654340873669</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.5084051007671</v>
       </c>
       <c r="E14" t="n">
-        <v>327.479377239889</v>
+        <v>171.1886243209699</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>337.952815562145</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344424</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.7701071136281</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
         <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087849</v>
+        <v>267.607428808785</v>
       </c>
       <c r="W14" t="n">
-        <v>277.0910155878871</v>
+        <v>296.2107322866636</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>314.4797666215419</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938731</v>
       </c>
     </row>
     <row r="15">
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>72.0556099437611</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993877</v>
+        <v>97.42475435993883</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465761</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442488</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681701</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901691</v>
+        <v>51.58366707901696</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845443</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187163</v>
@@ -1822,16 +1822,16 @@
         <v>211.5060914457862</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>192.2412393326522</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534023</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>160.6612066001149</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>93.16084888545871</v>
       </c>
     </row>
     <row r="17">
@@ -1841,19 +1841,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G17" t="n">
         <v>278.6711586412924</v>
@@ -1862,7 +1862,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422876488</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059378</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U17" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X17" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325497</v>
@@ -2068,7 +2068,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="20">
@@ -2078,19 +2078,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D20" t="n">
         <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G20" t="n">
         <v>278.6711586412924</v>
@@ -2099,7 +2099,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U20" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X20" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325497</v>
@@ -2305,7 +2305,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="23">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815731</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093889</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227891</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.7777698619111</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126122</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564644</v>
       </c>
       <c r="I32" t="n">
-        <v>30.6172884383889</v>
+        <v>24.17382596574998</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828902</v>
+        <v>52.06849973565011</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434677</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.905821430807</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086856</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435639</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158951</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431734</v>
+        <v>70.57601873167843</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459975</v>
+        <v>55.72314698196084</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643948</v>
+        <v>41.29686219380056</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931859</v>
+        <v>41.22330424667967</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908586</v>
+        <v>42.97275566644694</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147799</v>
+        <v>53.79159358883908</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805003</v>
+        <v>41.14384575541112</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922196</v>
+        <v>18.98356133658305</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367788</v>
+        <v>9.882059701038969</v>
       </c>
       <c r="S34" t="n">
-        <v>94.4514656792052</v>
+        <v>88.00800320656629</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407384</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546742</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221369</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F41" t="n">
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277559</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U41" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H43" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F44" t="n">
         <v>282.3655247697376</v>
@@ -3992,10 +3992,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277666</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U44" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W44" t="n">
         <v>236.929075365811</v>
@@ -4043,7 +4043,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V46" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1148.916359661855</v>
+        <v>999.032655102558</v>
       </c>
       <c r="C2" t="n">
-        <v>1148.916359661855</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="D2" t="n">
-        <v>1148.916359661855</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="E2" t="n">
-        <v>1148.916359661855</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="F2" t="n">
-        <v>780.7414653402611</v>
+        <v>188.9627151354664</v>
       </c>
       <c r="G2" t="n">
-        <v>367.5787098282643</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475497</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J2" t="n">
-        <v>71.56469320325465</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>430.5470492307165</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L2" t="n">
-        <v>923.8673409492453</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="M2" t="n">
-        <v>1462.126125959338</v>
+        <v>1058.738054302317</v>
       </c>
       <c r="N2" t="n">
-        <v>1989.9374095968</v>
+        <v>1572.340732912006</v>
       </c>
       <c r="O2" t="n">
-        <v>1989.9374095968</v>
+        <v>2012.380333804334</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.9374095968</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.79005602327</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964321</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="T2" t="n">
-        <v>1746.775898523737</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="U2" t="n">
-        <v>1491.023168958336</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="V2" t="n">
-        <v>1148.916359661855</v>
+        <v>1784.9759692489</v>
       </c>
       <c r="W2" t="n">
-        <v>1148.916359661855</v>
+        <v>1784.9759692489</v>
       </c>
       <c r="X2" t="n">
-        <v>1148.916359661855</v>
+        <v>1395.523364181957</v>
       </c>
       <c r="Y2" t="n">
-        <v>1148.916359661855</v>
+        <v>999.032655102558</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793.4743885466976</v>
+        <v>574.3337716287375</v>
       </c>
       <c r="C3" t="n">
-        <v>642.8201581067898</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="D3" t="n">
-        <v>512.7311907282701</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="E3" t="n">
-        <v>376.2846998391578</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>251.8528937222896</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>131.793075794154</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475497</v>
+        <v>90.89050074442689</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>158.7695259828359</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>642.3356118811491</v>
       </c>
       <c r="M3" t="n">
-        <v>1498.174658585115</v>
+        <v>1155.938290490838</v>
       </c>
       <c r="N3" t="n">
-        <v>1534.79650946646</v>
+        <v>1669.540969100526</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.79650946646</v>
+        <v>1669.540969100526</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182858</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737748</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S3" t="n">
-        <v>2039.852292637617</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="T3" t="n">
-        <v>1976.612408379144</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U3" t="n">
-        <v>1766.549265057786</v>
+        <v>1529.267662492407</v>
       </c>
       <c r="V3" t="n">
-        <v>1544.009263428853</v>
+        <v>1306.727660863474</v>
       </c>
       <c r="W3" t="n">
-        <v>1313.89201756214</v>
+        <v>1076.610414996761</v>
       </c>
       <c r="X3" t="n">
-        <v>1124.584939912152</v>
+        <v>887.3033373467729</v>
       </c>
       <c r="Y3" t="n">
-        <v>945.2707229876589</v>
+        <v>707.9891204222802</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>332.1488968984746</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="C4" t="n">
-        <v>332.1488968984746</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="D4" t="n">
-        <v>332.1488968984746</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="E4" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="F4" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="G4" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H4" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>583.330228098702</v>
       </c>
       <c r="U4" t="n">
-        <v>659.5038901782084</v>
+        <v>307.4825919355142</v>
       </c>
       <c r="V4" t="n">
-        <v>393.5245449990326</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="W4" t="n">
-        <v>332.1488968984746</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="X4" t="n">
-        <v>332.1488968984746</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="Y4" t="n">
-        <v>332.1488968984746</v>
+        <v>41.50324675633848</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1774.288224026351</v>
+        <v>1537.649747726262</v>
       </c>
       <c r="C5" t="n">
-        <v>1774.288224026351</v>
+        <v>1332.523728922454</v>
       </c>
       <c r="D5" t="n">
-        <v>1388.847095243019</v>
+        <v>1332.523728922454</v>
       </c>
       <c r="E5" t="n">
-        <v>986.2635703595636</v>
+        <v>929.940204038998</v>
       </c>
       <c r="F5" t="n">
-        <v>569.3691318895413</v>
+        <v>513.0457655689758</v>
       </c>
       <c r="G5" t="n">
-        <v>156.2063763775445</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475497</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K5" t="n">
-        <v>43.49565939475497</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>536.8159511132837</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.074736123376</v>
+        <v>1407.408573112018</v>
       </c>
       <c r="N5" t="n">
-        <v>1602.886019760838</v>
+        <v>1921.011251721706</v>
       </c>
       <c r="O5" t="n">
-        <v>2042.925620653167</v>
+        <v>1921.011251721706</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737748</v>
+        <v>1921.011251721706</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737748</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737748</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="U5" t="n">
-        <v>2174.782969737748</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="V5" t="n">
-        <v>2174.782969737748</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="W5" t="n">
-        <v>2174.782969737748</v>
+        <v>1537.649747726262</v>
       </c>
       <c r="X5" t="n">
-        <v>2174.782969737748</v>
+        <v>1537.649747726262</v>
       </c>
       <c r="Y5" t="n">
-        <v>2174.782969737748</v>
+        <v>1537.649747726262</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021433</v>
+        <v>556.1927859813188</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622355</v>
+        <v>405.538555541411</v>
       </c>
       <c r="D6" t="n">
-        <v>375.0702200837159</v>
+        <v>303.6197232606942</v>
       </c>
       <c r="E6" t="n">
-        <v>238.6237291946036</v>
+        <v>303.6197232606942</v>
       </c>
       <c r="F6" t="n">
-        <v>114.1919230777354</v>
+        <v>179.187917143826</v>
       </c>
       <c r="G6" t="n">
-        <v>43.49565939475497</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H6" t="n">
-        <v>43.49565939475497</v>
+        <v>90.89050074442689</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K6" t="n">
-        <v>43.49565939475497</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L6" t="n">
-        <v>43.49565939475497</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653866</v>
+        <v>874.8450714282535</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875479</v>
+        <v>921.5731989359472</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.79650946646</v>
+        <v>1435.175877545636</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.95143773459</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413232</v>
+        <v>1529.267662492407</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784299</v>
+        <v>1306.727660863474</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917586</v>
+        <v>1076.610414996761</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675974</v>
+        <v>887.3033373467729</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431047</v>
+        <v>707.9891204222802</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>284.9342147184831</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="C7" t="n">
-        <v>114.7290967844723</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="D7" t="n">
-        <v>114.7290967844723</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="E7" t="n">
-        <v>114.7290967844723</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>742.1265981188567</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T7" t="n">
-        <v>742.1265981188567</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="U7" t="n">
-        <v>742.1265981188567</v>
+        <v>218.9763418905753</v>
       </c>
       <c r="V7" t="n">
-        <v>742.1265981188567</v>
+        <v>218.9763418905753</v>
       </c>
       <c r="W7" t="n">
-        <v>742.1265981188567</v>
+        <v>218.9763418905753</v>
       </c>
       <c r="X7" t="n">
-        <v>508.0462759018397</v>
+        <v>218.9763418905753</v>
       </c>
       <c r="Y7" t="n">
-        <v>284.9342147184831</v>
+        <v>218.9763418905753</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2196.907436154955</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="C8" t="n">
-        <v>1803.731934657886</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="D8" t="n">
-        <v>1418.290805874553</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="E8" t="n">
-        <v>1015.707280991098</v>
+        <v>611.6668769506939</v>
       </c>
       <c r="F8" t="n">
         <v>598.8128425210757</v>
@@ -4802,22 +4802,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>318.7636682303387</v>
+        <v>173.6308686433316</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>666.9511603618604</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1212.952060406441</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2199.134950018231</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2199.134950018231</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>2199.134950018231</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V8" t="n">
-        <v>2199.134950018231</v>
+        <v>1762.048179625637</v>
       </c>
       <c r="W8" t="n">
-        <v>2199.134950018231</v>
+        <v>1403.703006901093</v>
       </c>
       <c r="X8" t="n">
-        <v>2199.134950018231</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="Y8" t="n">
-        <v>2199.134950018231</v>
+        <v>1014.250401834149</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>367.0521161637701</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>952.5501211703722</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
-        <v>1538.048126176974</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>2054.568408767956</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>217.5180880355544</v>
       </c>
       <c r="C10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>922.2452207019717</v>
       </c>
       <c r="S10" t="n">
-        <v>745.9439088256454</v>
+        <v>922.2452207019717</v>
       </c>
       <c r="T10" t="n">
-        <v>510.2248569938795</v>
+        <v>922.2452207019717</v>
       </c>
       <c r="U10" t="n">
-        <v>224.7860652357804</v>
+        <v>636.8064289438726</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154361</v>
+        <v>636.8064289438726</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>636.8064289438726</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>402.7261067268557</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>402.7261067268557</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1470.676576838056</v>
+        <v>1435.837779556536</v>
       </c>
       <c r="C11" t="n">
-        <v>1149.297350487181</v>
+        <v>1114.45855320566</v>
       </c>
       <c r="D11" t="n">
-        <v>1079.371021131009</v>
+        <v>800.813699568522</v>
       </c>
       <c r="E11" t="n">
-        <v>748.5837713937472</v>
+        <v>470.0264498312602</v>
       </c>
       <c r="F11" t="n">
-        <v>403.4856080699187</v>
+        <v>470.0264498312602</v>
       </c>
       <c r="G11" t="n">
-        <v>62.11912770411573</v>
+        <v>128.6599694654571</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411573</v>
+        <v>128.6599694654571</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411573</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293021</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>3011.239105293021</v>
+        <v>2675.578323579423</v>
       </c>
       <c r="V11" t="n">
-        <v>2740.928571142733</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2441.725811257214</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="X11" t="n">
-        <v>2124.069481336464</v>
+        <v>2087.611459508386</v>
       </c>
       <c r="Y11" t="n">
-        <v>1799.375047403259</v>
+        <v>1764.536250121739</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1699486069232</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2295.043159414291</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>401.9661753553336</v>
+        <v>103.3140520158393</v>
       </c>
       <c r="C13" t="n">
-        <v>303.5573325675167</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D13" t="n">
-        <v>303.5573325675167</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E13" t="n">
-        <v>303.5573325675167</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675167</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>207.099553813156</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,13 +5200,13 @@
         <v>102.7129143774626</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027733</v>
       </c>
       <c r="M13" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118219</v>
       </c>
       <c r="N13" t="n">
         <v>999.6269248138158</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1496.732641814507</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T13" t="n">
-        <v>1332.809865128935</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U13" t="n">
-        <v>1121.28320541893</v>
+        <v>936.0428256245436</v>
       </c>
       <c r="V13" t="n">
-        <v>927.1001353859481</v>
+        <v>741.8597555915616</v>
       </c>
       <c r="W13" t="n">
-        <v>715.5660084633196</v>
+        <v>530.3256286689329</v>
       </c>
       <c r="X13" t="n">
-        <v>553.2819613924964</v>
+        <v>368.0415815981098</v>
       </c>
       <c r="Y13" t="n">
-        <v>401.9661753553336</v>
+        <v>216.7257955609469</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1400.750247481884</v>
+        <v>1463.714265689663</v>
       </c>
       <c r="C14" t="n">
-        <v>1079.371021131009</v>
+        <v>1142.335039338787</v>
       </c>
       <c r="D14" t="n">
-        <v>1079.371021131009</v>
+        <v>828.6901857016483</v>
       </c>
       <c r="E14" t="n">
-        <v>748.5837713937469</v>
+        <v>655.7723833572342</v>
       </c>
       <c r="F14" t="n">
-        <v>403.4856080699185</v>
+        <v>655.7723833572342</v>
       </c>
       <c r="G14" t="n">
-        <v>62.11912770411553</v>
+        <v>314.4059029914311</v>
       </c>
       <c r="H14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2921.999930786569</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2651.689396636281</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2371.799481901042</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X14" t="n">
-        <v>2054.143151980292</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y14" t="n">
-        <v>1729.448718047087</v>
+        <v>1463.714265689663</v>
       </c>
     </row>
     <row r="15">
@@ -5361,19 +5361,19 @@
         <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>381.858273766342</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>568.1699486069232</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>2009.716291882317</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>426.27794588173</v>
+        <v>160.5279704919325</v>
       </c>
       <c r="C16" t="n">
-        <v>327.8691030939131</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D16" t="n">
-        <v>327.8691030939131</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1065660993094</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>158.5769064584761</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
         <v>62.11912770411553</v>
@@ -5437,49 +5437,49 @@
         <v>102.7129143774626</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581891</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027732</v>
       </c>
       <c r="M16" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118218</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138158</v>
+        <v>999.6269248138155</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126308</v>
       </c>
       <c r="P16" t="n">
-        <v>1422.942916173672</v>
+        <v>1422.942916173671</v>
       </c>
       <c r="Q16" t="n">
         <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593277</v>
       </c>
       <c r="S16" t="n">
-        <v>1444.627927593278</v>
+        <v>1313.60811892202</v>
       </c>
       <c r="T16" t="n">
-        <v>1280.705150907706</v>
+        <v>1149.685342236448</v>
       </c>
       <c r="U16" t="n">
-        <v>1067.062634295801</v>
+        <v>936.0428256245432</v>
       </c>
       <c r="V16" t="n">
-        <v>872.879564262819</v>
+        <v>741.8597555915612</v>
       </c>
       <c r="W16" t="n">
-        <v>661.3454373401904</v>
+        <v>530.3256286689325</v>
       </c>
       <c r="X16" t="n">
-        <v>499.0613902693675</v>
+        <v>368.0415815981095</v>
       </c>
       <c r="Y16" t="n">
-        <v>499.0613902693675</v>
+        <v>273.9397140370401</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975459</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099322</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803438</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924329</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,10 +5540,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
         <v>2855.219708188068</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>112.6101842924878</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>596.176270190801</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P18" t="n">
         <v>2146.089571124861</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5680,43 +5680,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q19" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5738,13 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924214</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5786,10 +5786,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5829,22 +5829,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>84.60386270860994</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>84.60386270860994</v>
+        <v>490.2252314250076</v>
       </c>
       <c r="L21" t="n">
-        <v>568.1699486069232</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="M21" t="n">
-        <v>568.1699486069232</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P21" t="n">
         <v>2146.089571124861</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5911,49 +5911,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>149.53381142224</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184684</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567324</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879416</v>
       </c>
       <c r="O22" t="n">
-        <v>969.324157721467</v>
+        <v>974.9038003296496</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498046</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q22" t="n">
-        <v>1092.622519868097</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="23">
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6023,10 +6023,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6072,13 +6072,13 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M24" t="n">
-        <v>1606.310991511064</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N24" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6145,22 +6145,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>67.69877031229882</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>149.5338114222407</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6614512960405</v>
+        <v>313.6614512960402</v>
       </c>
       <c r="M25" t="n">
-        <v>499.9530296343045</v>
+        <v>499.9530296343043</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879423</v>
+        <v>683.1426636655135</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296503</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P25" t="n">
         <v>1094.779966106229</v>
@@ -6209,13 +6209,13 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218606</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,28 +6224,28 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>576.9969878838402</v>
+        <v>755.8323718938493</v>
       </c>
       <c r="L26" t="n">
-        <v>1163.368641331942</v>
+        <v>1249.152663612378</v>
       </c>
       <c r="M26" t="n">
-        <v>1802.420903106096</v>
+        <v>1888.204925386532</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2509.067570753567</v>
       </c>
       <c r="O26" t="n">
-        <v>2956.374511095034</v>
+        <v>2949.107171645896</v>
       </c>
       <c r="P26" t="n">
-        <v>3397.613364956129</v>
+        <v>3390.346025506991</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377513</v>
@@ -6257,7 +6257,7 @@
         <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V26" t="n">
         <v>3060.131976164851</v>
@@ -6306,19 +6306,19 @@
         <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>670.0459270655908</v>
       </c>
       <c r="M27" t="n">
-        <v>1617.556722754498</v>
+        <v>1297.817576692272</v>
       </c>
       <c r="N27" t="n">
-        <v>1617.556722754498</v>
+        <v>1953.595547902831</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P27" t="n">
         <v>2157.335302368295</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414158</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H28" t="n">
         <v>111.518603023284</v>
@@ -6382,52 +6382,52 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286452</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026483</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218606</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142183</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6464,16 +6464,16 @@
         <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838402</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884792</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658946</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.201702025981</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O29" t="n">
         <v>2893.292664647883</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6540,19 +6540,19 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1532.448062118649</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985348</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D31" t="n">
         <v>368.3732297414157</v>
@@ -6610,61 +6610,61 @@
         <v>245.3698453879679</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796859</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192015</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286445</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988159</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026476</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.3560533993079</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057091</v>
+        <v>601.3807258108108</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835522</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>682.8393851136178</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.773061622651</v>
+        <v>1287.811797407129</v>
       </c>
       <c r="M32" t="n">
-        <v>1823.047054394302</v>
+        <v>1833.81269745171</v>
       </c>
       <c r="N32" t="n">
-        <v>2456.131430758834</v>
+        <v>2404.684126952458</v>
       </c>
       <c r="O32" t="n">
-        <v>2944.344359765611</v>
+        <v>2844.723727844786</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897133</v>
+        <v>3192.911219976308</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117257</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117257</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908496</v>
+        <v>3325.162335939833</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.580844380775</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696898</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131754</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.409263884299</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>500.409263884299</v>
       </c>
       <c r="M33" t="n">
-        <v>1613.73941204771</v>
+        <v>1128.18091351098</v>
       </c>
       <c r="N33" t="n">
-        <v>1613.73941204771</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965128</v>
+        <v>365.6713676929727</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918666</v>
+        <v>309.385360640487</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237459</v>
+        <v>267.6713584245268</v>
       </c>
       <c r="E34" t="n">
-        <v>254.058261612313</v>
+        <v>226.0316571652544</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546505</v>
+        <v>182.6248332597524</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834606</v>
+        <v>128.2898902407231</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431916</v>
+        <v>86.73045008374216</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074064</v>
+        <v>225.4160927171</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082763</v>
+        <v>389.5437325908998</v>
       </c>
       <c r="M34" t="n">
-        <v>893.1204358736106</v>
+        <v>575.8353109291638</v>
       </c>
       <c r="N34" t="n">
-        <v>1076.31006990482</v>
+        <v>870.6770655353557</v>
       </c>
       <c r="O34" t="n">
-        <v>1239.014836946528</v>
+        <v>1145.033953152046</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649522</v>
+        <v>1264.910118928625</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.984435873659</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387761</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451835</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.305643501594</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.7859626250203</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395518</v>
+        <v>835.7257283273696</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000939</v>
+        <v>666.3144371400722</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124416</v>
+        <v>546.1532258045804</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584495</v>
+        <v>436.9602755027489</v>
       </c>
     </row>
     <row r="35">
@@ -6920,16 +6920,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6974,7 +6974,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7017,19 +7017,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P36" t="n">
         <v>2146.089571124861</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>435.0968109750519</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>621.3883893133159</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N37" t="n">
-        <v>804.578023344525</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O37" t="n">
-        <v>967.282790386233</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7157,16 +7157,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7208,7 +7208,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
         <v>2405.467337224691</v>
@@ -7254,19 +7254,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7339,19 +7339,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>804.578023344525</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>967.282790386233</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532862</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E41" t="n">
         <v>827.8895422975447</v>
@@ -7403,7 +7403,7 @@
         <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924219</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7412,16 +7412,16 @@
         <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L41" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M41" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O41" t="n">
         <v>2572.923332933306</v>
@@ -7430,10 +7430,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
         <v>3071.119566829236</v>
@@ -7442,16 +7442,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224689</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7500,7 +7500,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O42" t="n">
         <v>1740.468202408463</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885596</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369568</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218805</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072661</v>
       </c>
       <c r="H43" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462912</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>243.2367958390484</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>407.3644357128482</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>593.6560140511123</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
-        <v>776.8456480823215</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296512</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.77996610623</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T43" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,22 +7673,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829234</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V44" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7734,16 +7734,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7813,43 +7813,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>960.1439538756169</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
         <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.032397344871</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321644</v>
+        <v>668.5156360519582</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920151</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>213.7176129102076</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,16 +8058,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>93.79016463310104</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837489</v>
+        <v>611.1777065035428</v>
       </c>
       <c r="N3" t="n">
-        <v>122.3638814211824</v>
+        <v>604.1626973083976</v>
       </c>
       <c r="O3" t="n">
         <v>92.68755888888889</v>
@@ -8076,7 +8076,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8216,25 +8216,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321644</v>
+        <v>668.5156360519582</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920151</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>283.4906887405025</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>300.2068661913393</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,19 +8295,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>533.3182154539903</v>
+        <v>611.1777065035428</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886037</v>
+        <v>132.5722416498168</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431199</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>271.1401458256686</v>
+        <v>270.6522400901343</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8468,7 +8468,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8529,28 +8529,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>401.305684323582</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,16 +8766,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>115.0989755892052</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
@@ -8784,10 +8784,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>173.3576105420024</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9009,22 +9009,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>280.5807329993939</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>461.5665676450056</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,10 +9240,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>140.5980025943154</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
@@ -9258,7 +9258,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>110.5765941352903</v>
       </c>
       <c r="Q18" t="n">
         <v>327.7205688679246</v>
@@ -9419,7 +9419,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9477,10 +9477,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>105.1563108732267</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>407.7697853345098</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
@@ -9495,7 +9495,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
         <v>327.7205688679246</v>
@@ -9720,16 +9720,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>220.8844470939643</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9954,7 +9954,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
@@ -9963,13 +9963,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>228.1998931286863</v>
+        <v>298.485290672186</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>314.1682372053019</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10431,16 +10431,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>187.5973797276333</v>
       </c>
       <c r="O33" t="n">
-        <v>228.1998931286865</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10604,7 +10604,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10665,13 +10665,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
         <v>85.37211285416666</v>
@@ -10680,7 +10680,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>433.5454285415798</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10902,13 +10902,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
         <v>85.37211285416666</v>
@@ -10917,7 +10917,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>433.5454285415798</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11148,10 +11148,10 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>199.9106794075977</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11382,19 +11382,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23261,13 +23261,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>241.2813390381561</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905902</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>249.7639075344424</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372792</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866636</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.603032301092284</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>56.64177929133232</v>
       </c>
       <c r="D13" t="n">
-        <v>82.9984695717785</v>
+        <v>82.99846957177856</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465761</v>
+        <v>82.92491162465767</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442488</v>
+        <v>84.67436304442494</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681707</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338911</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456104</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901691</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>2.094698332880862</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.4114858595511</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>156.2907529189191</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905902</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344424</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372792</v>
+        <v>65.87543334372798</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362796</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>19.11971669877647</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>40.22201616589527</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.9984695717785</v>
+        <v>82.99846957177856</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465767</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442494</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681707</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338906</v>
+        <v>82.84545313338911</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456099</v>
+        <v>60.68516871456104</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767912</v>
+        <v>56.64177929133254</v>
       </c>
     </row>
     <row r="17">
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-1.125499693443999e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-6.963318810448982e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-1.165290086646564e-12</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>876464.1564130405</v>
+        <v>876163.3826061602</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>876464.1564130405</v>
+        <v>876163.3826061602</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>777827.6054292793</v>
+        <v>777827.6054292792</v>
       </c>
     </row>
     <row r="7">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>878498.7478402691</v>
+        <v>878498.7478402692</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396730.7918053848</v>
+        <v>396730.7918053849</v>
       </c>
       <c r="C2" t="n">
         <v>396730.791805385</v>
@@ -26320,31 +26320,31 @@
         <v>396730.7918053849</v>
       </c>
       <c r="E2" t="n">
-        <v>350589.8515336814</v>
+        <v>350589.8515336813</v>
       </c>
       <c r="F2" t="n">
         <v>350589.8515336812</v>
       </c>
       <c r="G2" t="n">
+        <v>396730.7918053849</v>
+      </c>
+      <c r="H2" t="n">
+        <v>396730.7918053849</v>
+      </c>
+      <c r="I2" t="n">
         <v>396730.791805385</v>
-      </c>
-      <c r="H2" t="n">
-        <v>396730.7918053848</v>
-      </c>
-      <c r="I2" t="n">
-        <v>396730.7918053849</v>
       </c>
       <c r="J2" t="n">
         <v>396730.7918053849</v>
       </c>
       <c r="K2" t="n">
-        <v>396730.7918053849</v>
+        <v>396730.7918053848</v>
       </c>
       <c r="L2" t="n">
-        <v>396730.7918053856</v>
+        <v>396730.7918053853</v>
       </c>
       <c r="M2" t="n">
-        <v>396730.7918053848</v>
+        <v>396730.791805385</v>
       </c>
       <c r="N2" t="n">
         <v>396730.7918053849</v>
@@ -26353,7 +26353,7 @@
         <v>396730.7918053849</v>
       </c>
       <c r="P2" t="n">
-        <v>396730.7918053849</v>
+        <v>396730.7918053848</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062194</v>
+        <v>22558.42953401337</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668201</v>
+        <v>47425.3255366821</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728558</v>
+        <v>62456.2417753968</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962303</v>
+        <v>43252.52447081116</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277111</v>
+        <v>27767.69404277115</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178075.8047892386</v>
+        <v>184487.2052585815</v>
       </c>
       <c r="C4" t="n">
-        <v>178075.8047892386</v>
+        <v>184487.2052585814</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
       </c>
       <c r="E4" t="n">
-        <v>86988.78851589421</v>
+        <v>86988.78851589415</v>
       </c>
       <c r="F4" t="n">
-        <v>86988.78851589419</v>
+        <v>86988.78851589415</v>
       </c>
       <c r="G4" t="n">
-        <v>134747.7050074764</v>
+        <v>134747.7050074765</v>
       </c>
       <c r="H4" t="n">
-        <v>134747.7050074764</v>
+        <v>134747.7050074765</v>
       </c>
       <c r="I4" t="n">
         <v>134747.7050074764</v>
       </c>
       <c r="J4" t="n">
+        <v>135498.1974718595</v>
+      </c>
+      <c r="K4" t="n">
         <v>135498.1974718596</v>
       </c>
-      <c r="K4" t="n">
-        <v>135498.1974718595</v>
-      </c>
       <c r="L4" t="n">
-        <v>135242.6235713762</v>
+        <v>135109.2289623215</v>
       </c>
       <c r="M4" t="n">
         <v>134747.7050074764</v>
       </c>
       <c r="N4" t="n">
+        <v>134747.7050074764</v>
+      </c>
+      <c r="O4" t="n">
         <v>134747.7050074765</v>
-      </c>
-      <c r="O4" t="n">
-        <v>134747.7050074764</v>
       </c>
       <c r="P4" t="n">
         <v>134747.7050074764</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.01969984052</v>
+        <v>53186.01969984051</v>
       </c>
       <c r="F5" t="n">
-        <v>53186.01969984052</v>
+        <v>53186.01969984051</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315424</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,7 +26506,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-30234.26241572338</v>
+        <v>-26785.13802206906</v>
       </c>
       <c r="C6" t="n">
-        <v>151970.6858761326</v>
+        <v>147073.5190119864</v>
       </c>
       <c r="D6" t="n">
-        <v>146531.1439003082</v>
+        <v>138794.8546769169</v>
       </c>
       <c r="E6" t="n">
-        <v>98292.48184390221</v>
+        <v>98082.75029721258</v>
       </c>
       <c r="F6" t="n">
-        <v>210415.0433179465</v>
+        <v>210205.311771257</v>
       </c>
       <c r="G6" t="n">
-        <v>156387.9919457069</v>
+        <v>156387.9919457067</v>
       </c>
       <c r="H6" t="n">
         <v>203813.3174823887</v>
       </c>
       <c r="I6" t="n">
+        <v>203813.3174823889</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-2712.314960323602</v>
+      </c>
+      <c r="K6" t="n">
+        <v>197573.5490796057</v>
+      </c>
+      <c r="L6" t="n">
+        <v>138342.1229345127</v>
+      </c>
+      <c r="M6" t="n">
+        <v>160560.7930115777</v>
+      </c>
+      <c r="N6" t="n">
         <v>203813.3174823888</v>
       </c>
-      <c r="J6" t="n">
-        <v>-9228.600114896697</v>
-      </c>
-      <c r="K6" t="n">
-        <v>197573.5490796058</v>
-      </c>
-      <c r="L6" t="n">
-        <v>142390.9601449853</v>
-      </c>
-      <c r="M6" t="n">
-        <v>161612.4880227657</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
+        <v>176045.6234396175</v>
+      </c>
+      <c r="P6" t="n">
         <v>203813.3174823887</v>
-      </c>
-      <c r="O6" t="n">
-        <v>176045.6234396177</v>
-      </c>
-      <c r="P6" t="n">
-        <v>203813.3174823888</v>
       </c>
     </row>
   </sheetData>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="F2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I2" t="n">
         <v>130.3599693155844</v>
@@ -26713,7 +26713,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.790584454231</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.790584454231</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26817,7 +26817,7 @@
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095203</v>
+        <v>844.4391950293142</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,7 +26826,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085251</v>
+        <v>59.28165692085263</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>34.70961755346389</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>78.070302219246</v>
+      </c>
+      <c r="M2" t="n">
+        <v>17.58004954287455</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>34.70961755346394</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>71.62683974660698</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.02351201551349</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>34.70961755346389</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.790584454231</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506412</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773712</v>
+        <v>659.3622249971652</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407277</v>
+        <v>117.1268713042789</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085251</v>
+        <v>59.28165692085263</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346394</v>
+        <v>34.70961755346389</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.790584454231</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506412</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,7 +27379,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -27388,16 +27388,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>48.23234870694449</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>216.2496558295332</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>17.95957579094451</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>112.6064882671923</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -27555,7 +27555,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>9.495244038962142</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>219.7352064285817</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>186.1689878663284</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>209.2586101162127</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -27676,7 +27676,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -27698,22 +27698,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>27.88843374682479</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>48.8699187027036</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>7.657574321493854</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27783,7 +27783,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>85.23157242333663</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27825,10 +27825,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -27837,10 +27837,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>394.2845595296399</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>12.52732368409619</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>96.41235525203562</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>87.62118754448957</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="C11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="D11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="E11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="F11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="G11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="H11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="I11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="T11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="U11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="V11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="W11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="X11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="C13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="D13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="E13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="F13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="G13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="H13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="I13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="J13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="K13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="L13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="M13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="N13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="O13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="P13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="R13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="S13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="T13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="U13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="V13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="W13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="X13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="C14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="D14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="E14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="F14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="G14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="H14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="I14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="T14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="U14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="V14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="W14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="X14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="C16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="D16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="E16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="F16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="G16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="H16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="I16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="J16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="K16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="L16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="M16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="N16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="O16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="P16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="R16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="S16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="T16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="U16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="V16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="W16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="X16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473184</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28761,34 +28761,34 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>130.3599693155844</v>
+        <v>5.636002634527912</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>128.2979821082774</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28840,7 +28840,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="21">
@@ -28956,37 +28956,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>5.636002634527912</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>128.2979821082772</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="23">
@@ -29068,7 +29068,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -29217,25 +29217,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>35.71049010668765</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>5.636002634528353</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29296,13 +29296,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>86.65052755599578</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>93.99127447431646</v>
@@ -29311,16 +29311,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>30.27223765901272</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
         <v>93.99127447431646</v>
@@ -29536,19 +29536,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>30.2722376590126</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901266</v>
       </c>
       <c r="P29" t="n">
         <v>93.99127447431646</v>
@@ -29746,46 +29746,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="L32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000709</v>
+        <v>43.49509683160204</v>
       </c>
       <c r="O32" t="n">
-        <v>48.65992738833177</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000709</v>
+        <v>76.79385455031621</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="P34" t="n">
-        <v>18.71446861254125</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="35">
@@ -30165,20 +30165,20 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5.636002634529063</v>
+      </c>
+      <c r="N37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>28.01250026485215</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30411,10 +30411,10 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N40" t="n">
-        <v>128.2979821082774</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30484,7 +30484,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30639,22 +30639,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>35.71049010668847</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.297982108277</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30885,7 +30885,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30897,10 +30897,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>128.2979821082779</v>
+        <v>128.297982108277</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.35255940252493</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344371</v>
+        <v>518.790584454231</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.790584454231</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>63.41616566928242</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,16 +34778,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>4.193229299767699</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344371</v>
+        <v>518.790584454231</v>
       </c>
       <c r="N3" t="n">
-        <v>36.99176856701577</v>
+        <v>518.790584454231</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,25 +34936,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344371</v>
+        <v>518.790584454231</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.790584454231</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>133.1892414995773</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>155.7081677729471</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,19 +35015,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>440.9310934046784</v>
+        <v>518.790584454231</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344371</v>
+        <v>47.20012879565017</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.790584454231</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>128.0817426464313</v>
+        <v>127.5938369108969</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35188,7 +35188,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>314.2223195042674</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>22.71185353989332</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
@@ -35504,10 +35504,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>86.27424572268772</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257283</v>
+        <v>41.00382492257277</v>
       </c>
       <c r="K13" t="n">
-        <v>153.7399700815419</v>
+        <v>153.7399700815418</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167519</v>
+        <v>236.8638072167518</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475238</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696906</v>
       </c>
       <c r="O13" t="n">
         <v>235.4265619318107</v>
       </c>
       <c r="P13" t="n">
-        <v>192.1653485326901</v>
+        <v>192.16534853269</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488438</v>
+        <v>74.53507640488432</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>188.193610950082</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>374.483202825691</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257283</v>
+        <v>41.00382492257277</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7399700815419</v>
+        <v>153.7399700815418</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.8638072167518</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475238</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696906</v>
       </c>
       <c r="O16" t="n">
         <v>235.4265619318107</v>
       </c>
       <c r="P16" t="n">
-        <v>192.1653485326901</v>
+        <v>192.16534853269</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488438</v>
+        <v>74.53507640488432</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P17" t="n">
         <v>351.7045375065877</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>51.00106726098205</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
@@ -35978,7 +35978,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>23.49322931597565</v>
       </c>
       <c r="Q18" t="n">
         <v>236.7324157120106</v>
@@ -36048,7 +36048,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36057,13 +36057,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>251.4470054535426</v>
+        <v>126.7230387724861</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>5.636002634528635</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36136,10 +36136,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>22.71185353989334</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>318.1728500011765</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
@@ -36215,7 +36215,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>236.7324157120106</v>
@@ -36279,10 +36279,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133789</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36291,7 +36291,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>5.636002634528405</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N23" t="n">
         <v>533.1427107449111</v>
@@ -36440,16 +36440,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>135.5123342397976</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.636002634528578</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565483</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>315.4000036905432</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>449.2589679877754</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
@@ -36607,16 +36607,16 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>216.9849246700718</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
@@ -36683,13 +36683,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>135.5123342397974</v>
+        <v>205.7977317832971</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>236.7324157120106</v>
@@ -36832,19 +36832,19 @@
         <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272236</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>474.756683004799</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>221.480678316413</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -37069,19 +37069,19 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>475.3883602044895</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682819</v>
+        <v>611.0832447409208</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511624</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449821</v>
+        <v>576.6378075765132</v>
       </c>
       <c r="O32" t="n">
-        <v>493.1443727341181</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
@@ -37151,16 +37151,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>102.2252668734666</v>
       </c>
       <c r="O33" t="n">
-        <v>135.5123342397976</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791186</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868809</v>
+        <v>159.4555122371262</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528629</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>297.8199541476686</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>277.1281693097887</v>
       </c>
       <c r="P34" t="n">
-        <v>139.8015047504994</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>116.2366837828623</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>346.4620637222652</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>193.7979950868721</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>193.809314087321</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37622,13 +37622,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>346.4620637222652</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37707,10 +37707,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N40" t="n">
-        <v>313.3380164832362</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835607</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317805</v>
       </c>
       <c r="L41" t="n">
         <v>498.303324968211</v>
@@ -37868,10 +37868,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37944,13 +37944,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>200.0587396437673</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634528176</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38102,19 +38102,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
@@ -38193,10 +38193,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>5.636002634529095</v>
+        <v>5.636002634528176</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
